--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_4_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_4_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.1159719388837317, 14.879131274045887]</t>
+          <t>[0.02138871637188977, 14.741770618790266]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05349679410251751</v>
+        <v>0.04936562130411359</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05349679410251751</v>
+        <v>0.04936562130411359</v>
       </c>
       <c r="P2" t="n">
         <v>-1.295631805084079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.817684702318773, 0.2264210921506158]</t>
+          <t>[-2.792526803190927, 0.20126319302276974]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.09332025473199623</v>
+        <v>0.08811085872940994</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09332025473199623</v>
+        <v>0.08811085872940994</v>
       </c>
       <c r="T2" t="n">
         <v>9.483116206044446</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.3588823730424044, 13.607350039046487]</t>
+          <t>[5.359680172348991, 13.606552239739901]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.106771806349329e-05</v>
+        <v>3.09769174577923e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.106771806349329e-05</v>
+        <v>3.09769174577923e-05</v>
       </c>
       <c r="X2" t="n">
         <v>4.720060060060089</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8248648648648702</v>
+        <v>-0.7332132132132179</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.26498498498505</v>
+        <v>10.1733333333334</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.9299626056941959, 16.03888924291002]</t>
+          <t>[-0.7913786129725571, 15.900305250188381]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.079640440366892</v>
+        <v>0.07493239867976409</v>
       </c>
       <c r="O3" t="n">
-        <v>0.079640440366892</v>
+        <v>0.07493239867976409</v>
       </c>
       <c r="P3" t="n">
         <v>-0.9811580659860013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.081842643161158, 1.1195265111891555]</t>
+          <t>[-2.7422110049352346, 0.779894872963232]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3518715883727617</v>
+        <v>0.2677534861523911</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3518715883727617</v>
+        <v>0.2677534861523911</v>
       </c>
       <c r="T3" t="n">
         <v>10.67710220508462</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.373397055419002, 14.980807354750237]</t>
+          <t>[6.377976570602483, 14.976227839566755]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.297394131912995e-06</v>
+        <v>9.134068148952679e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>9.297394131912995e-06</v>
+        <v>9.134068148952679e-06</v>
       </c>
       <c r="X3" t="n">
         <v>3.574414414414434</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.078498498498525</v>
+        <v>-2.84120120120122</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.22732732732739</v>
+        <v>9.990030030030088</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.7639322833920108, 14.164950205214259]</t>
+          <t>[-0.7421529735876522, 14.1431708954099]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.07729673758487832</v>
+        <v>0.07646378508925489</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07729673758487832</v>
+        <v>0.07646378508925489</v>
       </c>
       <c r="P4" t="n">
         <v>-0.8176317216550011</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.767395394394967, 2.132131951084965]</t>
+          <t>[-3.849158566560467, 2.213895123250465]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5794203518831953</v>
+        <v>0.5896572595687504</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5794203518831953</v>
+        <v>0.5896572595687504</v>
       </c>
       <c r="T4" t="n">
         <v>8.811157311034819</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.987731520011847, 12.63458310205779]</t>
+          <t>[4.9872532715136275, 12.635061350556011]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.003148100222397e-05</v>
+        <v>3.00885158717179e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.003148100222397e-05</v>
+        <v>3.00885158717179e-05</v>
       </c>
       <c r="X4" t="n">
         <v>2.978678678678698</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.767477477477524</v>
+        <v>-8.065345345345394</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.72483483483492</v>
+        <v>14.02270270270279</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.165353009146692, 13.560404453409111]</t>
+          <t>[-2.3785081322639217, 13.773559576526342]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.151389818780252</v>
+        <v>0.1622325243859912</v>
       </c>
       <c r="O5" t="n">
-        <v>0.151389818780252</v>
+        <v>0.1622325243859912</v>
       </c>
       <c r="P5" t="n">
         <v>-0.5786316799404627</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.7170795961392757, 2.5598162362583503]</t>
+          <t>[-3.528395352680429, 2.3711319927995036]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7121286909759896</v>
+        <v>0.6946426344892109</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7121286909759896</v>
+        <v>0.6946426344892109</v>
       </c>
       <c r="T5" t="n">
         <v>9.35166499089992</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.107546542820323, 13.595783438979517]</t>
+          <t>[5.107596134570322, 13.595733847229518]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.817112233352795e-05</v>
+        <v>5.816139283298938e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.817112233352795e-05</v>
+        <v>5.816139283298938e-05</v>
       </c>
       <c r="X5" t="n">
         <v>2.107987987988004</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.32555555555561</v>
+        <v>-8.638168168168219</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.54153153153162</v>
+        <v>12.85414414414423</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.6009653926697158, 12.318212756873786]</t>
+          <t>[-1.6346358952862552, 12.351883259490325]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1279585738129312</v>
+        <v>0.1297575860045488</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1279585738129312</v>
+        <v>0.1297575860045488</v>
       </c>
       <c r="P6" t="n">
         <v>-0.2012631930227693</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.4969214884387343, 2.0943951023931957]</t>
+          <t>[-2.094395102393195, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.860631471579905</v>
+        <v>0.8314177088751362</v>
       </c>
       <c r="S6" t="n">
-        <v>0.860631471579905</v>
+        <v>0.8314177088751362</v>
       </c>
       <c r="T6" t="n">
         <v>8.088099203573279</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.178478744281433, 11.997719662865125]</t>
+          <t>[4.179158905244932, 11.997039501901625]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.0001383077691745616</v>
+        <v>0.0001379913979242531</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001383077691745616</v>
+        <v>0.0001379913979242531</v>
       </c>
       <c r="X6" t="n">
         <v>0.7332132132132152</v>
       </c>
       <c r="Y6" t="n">
-        <v>-7.630000000000049</v>
+        <v>-6.163573573573612</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.096426426426479</v>
+        <v>7.630000000000043</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.9533651076008614, 12.935969971421018]</t>
+          <t>[-1.743084331542331, 12.725689195362488]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1443485843533021</v>
+        <v>0.1333094789002602</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1443485843533021</v>
+        <v>0.1333094789002602</v>
       </c>
       <c r="P7" t="n">
         <v>0.1572368695490391</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.1447109006488874, 2.4591846397469657]</t>
+          <t>[-2.8680005005744658, 3.182474239672544]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8911897640587616</v>
+        <v>0.9170924588353047</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8911897640587616</v>
+        <v>0.9170924588353047</v>
       </c>
       <c r="T7" t="n">
         <v>9.275100275602455</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.01262055146297, 13.53757999974194]</t>
+          <t>[5.009618900869273, 13.540581650335636]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.950504413194558e-05</v>
+        <v>7.019709993327794e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>6.950504413194558e-05</v>
+        <v>7.019709993327794e-05</v>
       </c>
       <c r="X7" t="n">
         <v>22.31717717717731</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.93105105105113</v>
+        <v>11.29606606606613</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.70330330330349</v>
+        <v>33.33828828828849</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.999582433531458, 13.781749917682152]</t>
+          <t>[-0.7370032685369399, 13.519170752687634]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.08839402933640805</v>
+        <v>0.07763226809557411</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08839402933640805</v>
+        <v>0.07763226809557411</v>
       </c>
       <c r="P8" t="n">
         <v>0.4717106086471166</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3962634015954638, 2.339684618889697]</t>
+          <t>[-1.2830528555201557, 2.226474072814389]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6135088853846042</v>
+        <v>0.5908848853857975</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6135088853846042</v>
+        <v>0.5908848853857975</v>
       </c>
       <c r="T8" t="n">
         <v>8.604155036112681</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[4.778949527155238, 12.429360545070125]</t>
+          <t>[4.77779218206036, 12.430517890165003]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.313389735099982e-05</v>
+        <v>4.332616402891176e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.313389735099982e-05</v>
+        <v>4.332616402891176e-05</v>
       </c>
       <c r="X8" t="n">
         <v>21.17153153153166</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.36639639639648</v>
+        <v>14.77882882882892</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.97666666666684</v>
+        <v>27.5642342342344</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.07817074454578155, 14.634375654012072]</t>
+          <t>[-0.2909781330005483, 14.847183042466838]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.05238023858033847</v>
+        <v>0.05907940635982478</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05238023858033847</v>
+        <v>0.05907940635982478</v>
       </c>
       <c r="P9" t="n">
         <v>0.9622896416401163</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.27044741562434726, 2.19502669890458]</t>
+          <t>[-0.7987632973091179, 2.7233425805893505]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1229018424042563</v>
+        <v>0.2769391349113897</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1229018424042563</v>
+        <v>0.2769391349113897</v>
       </c>
       <c r="T9" t="n">
         <v>9.331730672422218</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.461387455512443, 13.202073889331992]</t>
+          <t>[5.460552922177817, 13.202908422666619]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.482659684870491e-05</v>
+        <v>1.487801919419773e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.482659684870491e-05</v>
+        <v>1.487801919419773e-05</v>
       </c>
       <c r="X9" t="n">
         <v>19.38432432432445</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.89339339339349</v>
+        <v>12.96870870870879</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.8752552552554</v>
+        <v>25.7999399399401</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.2432612421410525, 16.26425745697665]</t>
+          <t>[0.23170266069744017, 16.275816038420263]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04370755442288798</v>
+        <v>0.04399830587752795</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04370755442288798</v>
+        <v>0.04399830587752795</v>
       </c>
       <c r="P10" t="n">
         <v>0.798763297309117</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.02515789912784605, 1.62268449374608]</t>
+          <t>[-0.06289474781961513, 1.6604213424378491]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.05710372353933635</v>
+        <v>0.06841184520853005</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05710372353933635</v>
+        <v>0.06841184520853005</v>
       </c>
       <c r="T10" t="n">
         <v>10.15512597792112</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.968408163903041, 14.341843791939192]</t>
+          <t>[5.967295082912546, 14.342956872929687]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.346310517735816e-05</v>
+        <v>1.35211279048697e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.346310517735816e-05</v>
+        <v>1.35211279048697e-05</v>
       </c>
       <c r="X10" t="n">
         <v>19.98006006006018</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.97846846846857</v>
+        <v>16.84099099099109</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.98165165165179</v>
+        <v>23.11912912912927</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.23733435369143052, 14.675822777509243]</t>
+          <t>[-0.07817963106551673, 14.51666805488333]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05742316744970655</v>
+        <v>0.05240010354473057</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05742316744970655</v>
+        <v>0.05240010354473057</v>
       </c>
       <c r="P11" t="n">
         <v>1.239026532046425</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.24528951649650121, 2.7233425805893505]</t>
+          <t>[-0.3459211130078863, 2.8239741771007356]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.09964047383640429</v>
+        <v>0.1223731210873809</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09964047383640429</v>
+        <v>0.1223731210873809</v>
       </c>
       <c r="T11" t="n">
         <v>9.339451731634066</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.272193466770462, 13.40670999649767]</t>
+          <t>[5.272436283113121, 13.40646718015501]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.171020654857415e-05</v>
+        <v>3.168162902400518e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.171020654857415e-05</v>
+        <v>3.168162902400518e-05</v>
       </c>
       <c r="X11" t="n">
         <v>18.78558558558576</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.25765765765778</v>
+        <v>12.882882882883</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.31351351351375</v>
+        <v>24.68828828828853</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.5343899791787923, 14.47324652686893]</t>
+          <t>[-0.5618352151665675, 14.500691762856706]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06790296250105832</v>
+        <v>0.06887504164256408</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06790296250105832</v>
+        <v>0.06887504164256408</v>
       </c>
       <c r="P12" t="n">
         <v>1.767342413731195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 3.3271321596576593]</t>
+          <t>[0.19497371824080734, 3.339711109221583]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.02726256992297671</v>
+        <v>0.02845205176787458</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02726256992297671</v>
+        <v>0.02845205176787458</v>
       </c>
       <c r="T12" t="n">
         <v>9.578710364975775</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.371799404014059, 13.785621325937491]</t>
+          <t>[5.372355350194303, 13.785065379757247]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.60089059261437e-05</v>
+        <v>3.593788084188532e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.60089059261437e-05</v>
+        <v>3.593788084188532e-05</v>
       </c>
       <c r="X12" t="n">
         <v>16.81801801801817</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.00900900900911</v>
+        <v>10.96216216216226</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.62702702702724</v>
+        <v>22.67387387387409</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.16205485472880454, 14.21867200956716]</t>
+          <t>[-0.032050319587286324, 14.088667474425641]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.05516409353474105</v>
+        <v>0.05100510011806247</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05516409353474105</v>
+        <v>0.05100510011806247</v>
       </c>
       <c r="P13" t="n">
         <v>2.031500354573581</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.39623691126357663, 3.6667637978835845]</t>
+          <t>[0.4968685077749626, 3.5661322013721986]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.01604702880590136</v>
+        <v>0.0106184541944796</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01604702880590136</v>
+        <v>0.0106184541944796</v>
       </c>
       <c r="T13" t="n">
         <v>8.518651673222935</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.704156297350965, 12.333147049094904]</t>
+          <t>[4.702548280961528, 12.334755065484343]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.791595844633179e-05</v>
+        <v>4.821098874807639e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>4.791595844633179e-05</v>
+        <v>4.821098874807639e-05</v>
       </c>
       <c r="X13" t="n">
         <v>15.83423423423438</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.744144144144228</v>
+        <v>10.11891891891901</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.92432432432453</v>
+        <v>21.54954954954975</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.352559407039422, 14.28850815686482]</t>
+          <t>[-0.4520051058652754, 14.387953855690673]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06158695847046514</v>
+        <v>0.06501666629381142</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06158695847046514</v>
+        <v>0.06501666629381142</v>
       </c>
       <c r="P14" t="n">
         <v>2.044079304137503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.45913165908319264, 3.629026949191813]</t>
+          <t>[0.5220264069028078, 3.5661322013721977]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.01264380089542683</v>
+        <v>0.00961317507407089</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01264380089542683</v>
+        <v>0.00961317507407089</v>
       </c>
       <c r="T14" t="n">
         <v>8.539720493047326</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[4.718354456941871, 12.361086529152782]</t>
+          <t>[4.723355302905166, 12.356085683189487]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.744990055338683e-05</v>
+        <v>4.655172700052113e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>4.744990055338683e-05</v>
+        <v>4.655172700052113e-05</v>
       </c>
       <c r="X14" t="n">
         <v>15.78738738738754</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.884684684684778</v>
+        <v>10.11891891891901</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.69009009009029</v>
+        <v>21.45585585585606</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.2280336025378933, 14.310262697985506]</t>
+          <t>[-0.08073214936452189, 14.162961244812134]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.05730977534568926</v>
+        <v>0.05254257873027868</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05730977534568926</v>
+        <v>0.05254257873027868</v>
       </c>
       <c r="P15" t="n">
         <v>2.031500354573581</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.40881586082750054, 3.6541848483196606]</t>
+          <t>[0.4339737599553466, 3.6290269491918146]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.01529427296868469</v>
+        <v>0.01385251725046843</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01529427296868469</v>
+        <v>0.01385251725046843</v>
       </c>
       <c r="T15" t="n">
         <v>8.559356350655973</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.73167449395428, 12.387038207357666]</t>
+          <t>[4.728990319940468, 12.389722381371477]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.700533439661037e-05</v>
+        <v>4.748844621027537e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.700533439661037e-05</v>
+        <v>4.748844621027537e-05</v>
       </c>
       <c r="X15" t="n">
         <v>15.83423423423438</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.790990990991077</v>
+        <v>9.884684684684771</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.87747747747768</v>
+        <v>21.78378378378399</v>
       </c>
     </row>
     <row r="16">
@@ -1803,51 +1803,51 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.049085360372672, 15.169458903013336]</t>
+          <t>[-0.9067824097166017, 15.027155952357266]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.08631857151078548</v>
+        <v>0.0810255029022926</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08631857151078548</v>
+        <v>0.0810255029022926</v>
       </c>
       <c r="P16" t="n">
         <v>2.320816194543811</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, 5.4466851611787]</t>
+          <t>[-0.6541053773240009, 5.295737766411623]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1417956856914637</v>
+        <v>0.1231287607806948</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1417956856914637</v>
+        <v>0.1231287607806948</v>
       </c>
       <c r="T16" t="n">
         <v>9.663124100147915</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[5.471940161869405, 13.854308038426424]</t>
+          <t>[5.470771630073827, 13.855476570222002]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.982176720855989e-05</v>
+        <v>2.994820800417131e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>2.982176720855989e-05</v>
+        <v>2.994820800417131e-05</v>
       </c>
       <c r="X16" t="n">
         <v>14.75675675675689</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.115315315315344</v>
+        <v>3.677477477477511</v>
       </c>
       <c r="Z16" t="n">
-        <v>26.39819819819844</v>
+        <v>25.83603603603628</v>
       </c>
     </row>
     <row r="17">
@@ -1889,51 +1889,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.10102840084151765, 14.093173073200521]</t>
+          <t>[-0.059080356088522024, 14.051225028447526]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.05321055308531619</v>
+        <v>0.05186770879032898</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05321055308531619</v>
+        <v>0.05186770879032898</v>
       </c>
       <c r="P17" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.9622896416401168, 4.1825007300044295]</t>
+          <t>[0.8868159442565786, 4.257974427387968]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.002396294075999394</v>
+        <v>0.003584744148775965</v>
       </c>
       <c r="S17" t="n">
-        <v>0.002396294075999394</v>
+        <v>0.003584744148775965</v>
       </c>
       <c r="T17" t="n">
         <v>8.62823766155452</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[4.8154364808084384, 12.441038842300602]</t>
+          <t>[4.812550917580567, 12.443924405528474]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.945250240477982e-05</v>
+        <v>3.98971112900437e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.945250240477982e-05</v>
+        <v>3.98971112900437e-05</v>
       </c>
       <c r="X17" t="n">
         <v>13.81981981981995</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.823423423423498</v>
+        <v>7.542342342342415</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8162162162164</v>
+        <v>20.09729729729749</v>
       </c>
     </row>
     <row r="18">
@@ -1975,51 +1975,51 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-0.025674434992824402, 14.133867548660392]</t>
+          <t>[-0.04196098858308517, 14.150154102250653]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.05080155086795624</v>
+        <v>0.05131270599062887</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05080155086795624</v>
+        <v>0.05131270599062887</v>
       </c>
       <c r="P18" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0.8993948938205008, 4.2453954778240455]</t>
+          <t>[0.9371317425122707, 4.2076586291322755]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.003362587728453548</v>
+        <v>0.002754813068871265</v>
       </c>
       <c r="S18" t="n">
-        <v>0.003362587728453548</v>
+        <v>0.002754813068871265</v>
       </c>
       <c r="T18" t="n">
         <v>8.650152685686841</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[4.8375949857422835, 12.462710385631398]</t>
+          <t>[4.83666666322674, 12.463638708146942]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>3.795842741616262e-05</v>
+        <v>3.809607596250153e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>3.795842741616262e-05</v>
+        <v>3.809607596250153e-05</v>
       </c>
       <c r="X18" t="n">
         <v>13.81981981981995</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.589189189189259</v>
+        <v>7.729729729729804</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.05045045045064</v>
+        <v>19.9099099099101</v>
       </c>
     </row>
     <row r="19">
@@ -2061,51 +2061,51 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-0.5541601832162826, 14.454646795234213]</t>
+          <t>[-0.696739308433262, 14.597225920451192]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.0686569770366614</v>
+        <v>0.07378854069652063</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0686569770366614</v>
+        <v>0.07378854069652063</v>
       </c>
       <c r="P19" t="n">
         <v>2.874289975356427</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.3145002294299633, 4.434079721282892]</t>
+          <t>[1.3019212798660411, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.0005650741556144645</v>
+        <v>0.000617973665811844</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0005650741556144645</v>
+        <v>0.000617973665811844</v>
       </c>
       <c r="T19" t="n">
         <v>9.647149835428596</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[5.463043286770613, 13.83125638408658]</t>
+          <t>[5.4662288527698895, 13.828070818087303]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.98056640657407e-05</v>
+        <v>2.946286588567659e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>2.98056640657407e-05</v>
+        <v>2.946286588567659e-05</v>
       </c>
       <c r="X19" t="n">
         <v>12.69549549549562</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.886486486486551</v>
+        <v>6.839639639639707</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.50450450450468</v>
+        <v>18.55135135135152</v>
       </c>
     </row>
     <row r="20">
@@ -2147,51 +2147,51 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.5097583112931314, 13.471379978850951]</t>
+          <t>[0.7552794845616244, 13.225858805582458]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.03512230437192665</v>
+        <v>0.0288382048518756</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03512230437192665</v>
+        <v>0.0288382048518756</v>
       </c>
       <c r="P20" t="n">
         <v>-3.107000542289005</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-4.339737599553468, -1.874263485024541]</t>
+          <t>[-4.39005339780916, -1.8239476867688489]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7.130755715678561e-06</v>
+        <v>1.382611148570412e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>7.130755715678561e-06</v>
+        <v>1.382611148570412e-05</v>
       </c>
       <c r="T20" t="n">
         <v>8.632796707808398</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[4.825020252924425, 12.44057316269237]</t>
+          <t>[4.8243088147728805, 12.441284600843915]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>3.838597104355301e-05</v>
+        <v>3.849264086963622e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>3.838597104355301e-05</v>
+        <v>3.849264086963622e-05</v>
       </c>
       <c r="X20" t="n">
         <v>11.57117117117128</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.980180180180244</v>
+        <v>6.792792792792857</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.16216216216231</v>
+        <v>16.3495495495497</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_4_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_4_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.02138871637188977, 14.741770618790266]</t>
+          <t>[-0.41035209304163445, 15.17351142820379]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04936562130411359</v>
+        <v>0.06277959477086936</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04936562130411359</v>
+        <v>0.06277959477086936</v>
       </c>
       <c r="P2" t="n">
         <v>-1.295631805084079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.792526803190927, 0.20126319302276974]</t>
+          <t>[-2.729632055371312, 0.1383684452031546]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.08811085872940994</v>
+        <v>0.07545155064128428</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08811085872940994</v>
+        <v>0.07545155064128428</v>
       </c>
       <c r="T2" t="n">
         <v>9.483116206044446</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.359680172348991, 13.606552239739901]</t>
+          <t>[5.3602008437573545, 13.606031568331538]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.09769174577923e-05</v>
+        <v>3.091777947750174e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.09769174577923e-05</v>
+        <v>3.091777947750174e-05</v>
       </c>
       <c r="X2" t="n">
         <v>4.720060060060089</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.7332132132132179</v>
+        <v>-0.5040840840840897</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.1733333333334</v>
+        <v>9.944204204204267</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.7913786129725571, 15.900305250188381]</t>
+          <t>[-0.8165956610750262, 15.92552229829085]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07493239867976409</v>
+        <v>0.07578258891650891</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07493239867976409</v>
+        <v>0.07578258891650891</v>
       </c>
       <c r="P3" t="n">
         <v>-0.9811580659860013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.7422110049352346, 0.779894872963232]</t>
+          <t>[-2.9686320970858504, 1.0063159651138478]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2677534861523911</v>
+        <v>0.3253915035897108</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2677534861523911</v>
+        <v>0.3253915035897108</v>
       </c>
       <c r="T3" t="n">
         <v>10.67710220508462</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.377976570602483, 14.976227839566755]</t>
+          <t>[6.379549007211517, 14.974655402957723]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.134068148952679e-06</v>
+        <v>9.078564503495201e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>9.134068148952679e-06</v>
+        <v>9.078564503495201e-06</v>
       </c>
       <c r="X3" t="n">
         <v>3.574414414414434</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.84120120120122</v>
+        <v>-3.66606606606609</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.990030030030088</v>
+        <v>10.81489489489496</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.7421529735876522, 14.1431708954099]</t>
+          <t>[-0.27836077886395216, 13.6793787006862]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.07646378508925489</v>
+        <v>0.05944620220974617</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07646378508925489</v>
+        <v>0.05944620220974617</v>
       </c>
       <c r="P4" t="n">
         <v>-0.8176317216550011</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.849158566560467, 2.213895123250465]</t>
+          <t>[-3.6730532726655443, 2.037789829355542]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5896572595687504</v>
+        <v>0.5669987609111979</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5896572595687504</v>
+        <v>0.5669987609111979</v>
       </c>
       <c r="T4" t="n">
         <v>8.811157311034819</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.9872532715136275, 12.635061350556011]</t>
+          <t>[4.984186727993606, 12.638127894076032]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.00885158717179e-05</v>
+        <v>3.04564169963939e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.00885158717179e-05</v>
+        <v>3.04564169963939e-05</v>
       </c>
       <c r="X4" t="n">
         <v>2.978678678678698</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.065345345345394</v>
+        <v>-7.423783783783829</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.02270270270279</v>
+        <v>13.38114114114122</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.3785081322639217, 13.773559576526342]</t>
+          <t>[-2.092581769165376, 13.487633213427795]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1622325243859912</v>
+        <v>0.1476918616751122</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1622325243859912</v>
+        <v>0.1476918616751122</v>
       </c>
       <c r="P5" t="n">
         <v>-0.5786316799404627</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.528395352680429, 2.3711319927995036]</t>
+          <t>[-3.6101585248459287, 2.4528951649650033]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6946426344892109</v>
+        <v>0.7024670991728712</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6946426344892109</v>
+        <v>0.7024670991728712</v>
       </c>
       <c r="T5" t="n">
         <v>9.35166499089992</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.107596134570322, 13.595733847229518]</t>
+          <t>[5.105120334427024, 13.598209647372816]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.816139283298938e-05</v>
+        <v>5.864879444228421e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.816139283298938e-05</v>
+        <v>5.864879444228421e-05</v>
       </c>
       <c r="X5" t="n">
         <v>2.107987987988004</v>
       </c>
       <c r="Y5" t="n">
-        <v>-8.638168168168219</v>
+        <v>-8.936036036036088</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.85414414414423</v>
+        <v>13.1520120120121</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.6346358952862552, 12.351883259490325]</t>
+          <t>[-1.7801881247685714, 12.497435488972641]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1297575860045488</v>
+        <v>0.1375631825300332</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1297575860045488</v>
+        <v>0.1375631825300332</v>
       </c>
       <c r="P6" t="n">
         <v>-0.2012631930227693</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.094395102393195, 1.6918687163476562]</t>
+          <t>[-3.1636058153266577, 2.761079429281119]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8314177088751362</v>
+        <v>0.8917682194422885</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8314177088751362</v>
+        <v>0.8917682194422885</v>
       </c>
       <c r="T6" t="n">
         <v>8.088099203573279</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.179158905244932, 11.997039501901625]</t>
+          <t>[4.1789259388457225, 11.997272468300835]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.0001379913979242531</v>
+        <v>0.0001380996933364464</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001379913979242531</v>
+        <v>0.0001380996933364464</v>
       </c>
       <c r="X6" t="n">
         <v>0.7332132132132152</v>
       </c>
       <c r="Y6" t="n">
-        <v>-6.163573573573612</v>
+        <v>-10.05876876876883</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.630000000000043</v>
+        <v>11.52519519519526</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.743084331542331, 12.725689195362488]</t>
+          <t>[-2.088300712284614, 13.07090557610477]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1333094789002602</v>
+        <v>0.1514596122263454</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1333094789002602</v>
+        <v>0.1514596122263454</v>
       </c>
       <c r="P7" t="n">
         <v>0.1572368695490391</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.8680005005744658, 3.182474239672544]</t>
+          <t>[-2.792526803190927, 3.1070005422890055]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.9170924588353047</v>
+        <v>0.9149793705108795</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9170924588353047</v>
+        <v>0.9149793705108795</v>
       </c>
       <c r="T7" t="n">
         <v>9.275100275602455</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.009618900869273, 13.540581650335636]</t>
+          <t>[5.011825783432688, 13.538374767772222]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.019709993327794e-05</v>
+        <v>6.968772749837981e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>7.019709993327794e-05</v>
+        <v>6.968772749837981e-05</v>
       </c>
       <c r="X7" t="n">
         <v>22.31717717717731</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.29606606606613</v>
+        <v>11.57102102102109</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.33828828828849</v>
+        <v>33.06333333333353</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.7370032685369399, 13.519170752687634]</t>
+          <t>[-0.6529613294205117, 13.435128813571206]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07763226809557411</v>
+        <v>0.07427506736493394</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07763226809557411</v>
+        <v>0.07427506736493394</v>
       </c>
       <c r="P8" t="n">
         <v>0.4717106086471166</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, 2.226474072814389]</t>
+          <t>[-1.4088423511593868, 2.35226356845362]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5908848853857975</v>
+        <v>0.6158769696279229</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5908848853857975</v>
+        <v>0.6158769696279229</v>
       </c>
       <c r="T8" t="n">
         <v>8.604155036112681</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[4.77779218206036, 12.430517890165003]</t>
+          <t>[4.7763580664739465, 12.431952005751416]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.332616402891176e-05</v>
+        <v>4.356541259653568e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.332616402891176e-05</v>
+        <v>4.356541259653568e-05</v>
       </c>
       <c r="X8" t="n">
         <v>21.17153153153166</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.77882882882892</v>
+        <v>14.32057057057066</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.5642342342344</v>
+        <v>28.02249249249266</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.2909781330005483, 14.847183042466838]</t>
+          <t>[-0.20027009594184264, 14.756475005408133]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.05907940635982478</v>
+        <v>0.05618586781640511</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05907940635982478</v>
+        <v>0.05618586781640511</v>
       </c>
       <c r="P9" t="n">
         <v>0.9622896416401163</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.7987632973091179, 2.7233425805893505]</t>
+          <t>[-0.8113422468730409, 2.7359215301532736]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2769391349113897</v>
+        <v>0.2803156601105328</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2769391349113897</v>
+        <v>0.2803156601105328</v>
       </c>
       <c r="T9" t="n">
         <v>9.331730672422218</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.460552922177817, 13.202908422666619]</t>
+          <t>[5.461250638418548, 13.202210706425888]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.487801919419773e-05</v>
+        <v>1.483501676213805e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.487801919419773e-05</v>
+        <v>1.483501676213805e-05</v>
       </c>
       <c r="X9" t="n">
         <v>19.38432432432445</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.96870870870879</v>
+        <v>12.92288288288296</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.7999399399401</v>
+        <v>25.84576576576593</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.23170266069744017, 16.275816038420263]</t>
+          <t>[-0.014455712654854125, 16.521974411772558]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04399830587752795</v>
+        <v>0.05038505767660628</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04399830587752795</v>
+        <v>0.05038505767660628</v>
       </c>
       <c r="P10" t="n">
         <v>0.798763297309117</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.06289474781961513, 1.6604213424378491]</t>
+          <t>[-0.07547369738353815, 1.6730002920017721]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.06841184520853005</v>
+        <v>0.07233600324898926</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06841184520853005</v>
+        <v>0.07233600324898926</v>
       </c>
       <c r="T10" t="n">
         <v>10.15512597792112</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.967295082912546, 14.342956872929687]</t>
+          <t>[5.966617710184414, 14.34363424565782]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.35211279048697e-05</v>
+        <v>1.35565433625473e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35211279048697e-05</v>
+        <v>1.35565433625473e-05</v>
       </c>
       <c r="X10" t="n">
         <v>19.98006006006018</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.84099099099109</v>
+        <v>16.79516516516527</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.11912912912927</v>
+        <v>23.16495495495509</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.07817963106551673, 14.51666805488333]</t>
+          <t>[-0.2908982282295458, 14.729386652047358]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05240010354473057</v>
+        <v>0.05915322070997786</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05240010354473057</v>
+        <v>0.05915322070997786</v>
       </c>
       <c r="P11" t="n">
         <v>1.239026532046425</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.3459211130078863, 2.8239741771007356]</t>
+          <t>[-0.2956053147521933, 2.7736583788450426]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1223731210873809</v>
+        <v>0.1109033914123607</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1223731210873809</v>
+        <v>0.1109033914123607</v>
       </c>
       <c r="T11" t="n">
         <v>9.339451731634066</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.272436283113121, 13.40646718015501]</t>
+          <t>[5.2758330317077835, 13.403070431560348]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.168162902400518e-05</v>
+        <v>3.128414565956028e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.168162902400518e-05</v>
+        <v>3.128414565956028e-05</v>
       </c>
       <c r="X11" t="n">
         <v>18.78558558558576</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.882882882883</v>
+        <v>13.07027027027039</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.68828828828853</v>
+        <v>24.50090090090114</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.5618352151665675, 14.500691762856706]</t>
+          <t>[-0.2919064524966739, 14.230763000186812]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06887504164256408</v>
+        <v>0.05952623340450347</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06887504164256408</v>
+        <v>0.05952623340450347</v>
       </c>
       <c r="P12" t="n">
         <v>1.767342413731195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.19497371824080734, 3.339711109221583]</t>
+          <t>[0.2327105669325773, 3.3019742605298132]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.02845205176787458</v>
+        <v>0.02496275179525886</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02845205176787458</v>
+        <v>0.02496275179525886</v>
       </c>
       <c r="T12" t="n">
         <v>9.578710364975775</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.372355350194303, 13.785065379757247]</t>
+          <t>[5.3703818334842275, 13.787038896467323]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.593788084188532e-05</v>
+        <v>3.619054632131302e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.593788084188532e-05</v>
+        <v>3.619054632131302e-05</v>
       </c>
       <c r="X12" t="n">
         <v>16.81801801801817</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.96216216216226</v>
+        <v>11.1027027027028</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.67387387387409</v>
+        <v>22.53333333333354</v>
       </c>
     </row>
     <row r="13">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.032050319587286324, 14.088667474425641]</t>
+          <t>[-0.18757586629904743, 14.244193021137402]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.05100510011806247</v>
+        <v>0.0559955586266534</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05100510011806247</v>
+        <v>0.0559955586266534</v>
       </c>
       <c r="P13" t="n">
         <v>2.031500354573581</v>
@@ -1573,14 +1573,14 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.702548280961528, 12.334755065484343]</t>
+          <t>[4.7021423591904785, 12.335160987255392]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.821098874807639e-05</v>
+        <v>4.828570640680319e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>4.821098874807639e-05</v>
+        <v>4.828570640680319e-05</v>
       </c>
       <c r="X13" t="n">
         <v>15.83423423423438</v>
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.4520051058652754, 14.387953855690673]</t>
+          <t>[0.20376592159714946, 13.732182828228249]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06501666629381142</v>
+        <v>0.04375516060088036</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06501666629381142</v>
+        <v>0.04375516060088036</v>
       </c>
       <c r="P14" t="n">
         <v>2.044079304137503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.5220264069028078, 3.5661322013721977]</t>
+          <t>[0.4465527095192696, 3.641605898755736]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.00961317507407089</v>
+        <v>0.01331220225550367</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00961317507407089</v>
+        <v>0.01331220225550367</v>
       </c>
       <c r="T14" t="n">
         <v>8.539720493047326</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[4.723355302905166, 12.356085683189487]</t>
+          <t>[4.719847570264306, 12.359593415830346]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.655172700052113e-05</v>
+        <v>4.718021564875663e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>4.655172700052113e-05</v>
+        <v>4.718021564875663e-05</v>
       </c>
       <c r="X14" t="n">
         <v>15.78738738738754</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.11891891891901</v>
+        <v>9.837837837837931</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.45585585585606</v>
+        <v>21.73693693693714</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.08073214936452189, 14.162961244812134]</t>
+          <t>[-0.24223252211869273, 14.324461617566305]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.05254257873027868</v>
+        <v>0.05777772065787778</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05254257873027868</v>
+        <v>0.05777772065787778</v>
       </c>
       <c r="P15" t="n">
         <v>2.031500354573581</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 3.6290269491918146]</t>
+          <t>[0.47171060864711567, 3.5912901005000455]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.01385251725046843</v>
+        <v>0.01184889892871932</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01385251725046843</v>
+        <v>0.01184889892871932</v>
       </c>
       <c r="T15" t="n">
         <v>8.559356350655973</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.728990319940468, 12.389722381371477]</t>
+          <t>[4.726900401206381, 12.391812300105565]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.748844621027537e-05</v>
+        <v>4.786749019070058e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.748844621027537e-05</v>
+        <v>4.786749019070058e-05</v>
       </c>
       <c r="X15" t="n">
         <v>15.83423423423438</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.884684684684771</v>
+        <v>10.02522522522531</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.78378378378399</v>
+        <v>21.64324324324345</v>
       </c>
     </row>
     <row r="16">
@@ -1803,51 +1803,51 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-0.9067824097166017, 15.027155952357266]</t>
+          <t>[-1.004391789488066, 15.12476533212873]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0810255029022926</v>
+        <v>0.08464621617697343</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0810255029022926</v>
+        <v>0.08464621617697343</v>
       </c>
       <c r="P16" t="n">
         <v>2.320816194543811</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 5.295737766411623]</t>
+          <t>[-0.7170001251436169, 5.358632514231239]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1231287607806948</v>
+        <v>0.1308742466323114</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1231287607806948</v>
+        <v>0.1308742466323114</v>
       </c>
       <c r="T16" t="n">
         <v>9.663124100147915</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[5.470771630073827, 13.855476570222002]</t>
+          <t>[5.471361115617594, 13.854887084678236]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.994820800417131e-05</v>
+        <v>2.988436598672095e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>2.994820800417131e-05</v>
+        <v>2.988436598672095e-05</v>
       </c>
       <c r="X16" t="n">
         <v>14.75675675675689</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.677477477477511</v>
+        <v>3.443243243243275</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.83603603603628</v>
+        <v>26.07027027027051</v>
       </c>
     </row>
     <row r="17">
@@ -1889,51 +1889,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.059080356088522024, 14.051225028447526]</t>
+          <t>[-0.18365058044657268, 14.175795252805576]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.05186770879032898</v>
+        <v>0.05589498850503261</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05186770879032898</v>
+        <v>0.05589498850503261</v>
       </c>
       <c r="P17" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.8868159442565786, 4.257974427387968]</t>
+          <t>[0.8113422468730387, 4.3334481247715075]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.003584744148775965</v>
+        <v>0.005137698757383902</v>
       </c>
       <c r="S17" t="n">
-        <v>0.003584744148775965</v>
+        <v>0.005137698757383902</v>
       </c>
       <c r="T17" t="n">
         <v>8.62823766155452</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[4.812550917580567, 12.443924405528474]</t>
+          <t>[4.8161841751980905, 12.44029114791095]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.98971112900437e-05</v>
+        <v>3.933798303079605e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.98971112900437e-05</v>
+        <v>3.933798303079605e-05</v>
       </c>
       <c r="X17" t="n">
         <v>13.81981981981995</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.542342342342415</v>
+        <v>7.261261261261327</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.09729729729749</v>
+        <v>20.37837837837857</v>
       </c>
     </row>
     <row r="18">
@@ -1975,51 +1975,51 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-0.04196098858308517, 14.150154102250653]</t>
+          <t>[-0.07548670025300197, 14.18367981392057]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.05131270599062887</v>
+        <v>0.0523714200562535</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05131270599062887</v>
+        <v>0.0523714200562535</v>
       </c>
       <c r="P18" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0.9371317425122707, 4.2076586291322755]</t>
+          <t>[0.9874475407679628, 4.157342830876583]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.002754813068871265</v>
+        <v>0.00207292200075182</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002754813068871265</v>
+        <v>0.00207292200075182</v>
       </c>
       <c r="T18" t="n">
         <v>8.650152685686841</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[4.83666666322674, 12.463638708146942]</t>
+          <t>[4.834861011203714, 12.465444360169968]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>3.809607596250153e-05</v>
+        <v>3.836502166598699e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>3.809607596250153e-05</v>
+        <v>3.836502166598699e-05</v>
       </c>
       <c r="X18" t="n">
         <v>13.81981981981995</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.729729729729804</v>
+        <v>7.917117117117191</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.9099099099101</v>
+        <v>19.72252252252271</v>
       </c>
     </row>
     <row r="19">
@@ -2061,14 +2061,14 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-0.696739308433262, 14.597225920451192]</t>
+          <t>[-0.669810522455526, 14.570297134473456]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.07378854069652063</v>
+        <v>0.07281022448101915</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07378854069652063</v>
+        <v>0.07281022448101915</v>
       </c>
       <c r="P19" t="n">
         <v>2.874289975356427</v>
@@ -2089,14 +2089,14 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[5.4662288527698895, 13.828070818087303]</t>
+          <t>[5.466612042215845, 13.827687628641348]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.946286588567659e-05</v>
+        <v>2.942185768817218e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>2.946286588567659e-05</v>
+        <v>2.942185768817218e-05</v>
       </c>
       <c r="X19" t="n">
         <v>12.69549549549562</v>
@@ -2147,51 +2147,51 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.7552794845616244, 13.225858805582458]</t>
+          <t>[0.6169621211770338, 13.364176168967049]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.0288382048518756</v>
+        <v>0.03230331505644624</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0288382048518756</v>
+        <v>0.03230331505644624</v>
       </c>
       <c r="P20" t="n">
         <v>-3.107000542289005</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-4.39005339780916, -1.8239476867688489]</t>
+          <t>[-4.364895498681314, -1.849105585896695]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.382611148570412e-05</v>
+        <v>1.000266529471716e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>1.382611148570412e-05</v>
+        <v>1.000266529471716e-05</v>
       </c>
       <c r="T20" t="n">
         <v>8.632796707808398</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[4.8243088147728805, 12.441284600843915]</t>
+          <t>[4.82384992727566, 12.441743488341135]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>3.849264086963622e-05</v>
+        <v>3.856157731130239e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>3.849264086963622e-05</v>
+        <v>3.856157731130239e-05</v>
       </c>
       <c r="X20" t="n">
         <v>11.57117117117128</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.792792792792857</v>
+        <v>6.886486486486551</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.3495495495497</v>
+        <v>16.25585585585601</v>
       </c>
     </row>
   </sheetData>
